--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="8260" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">EM segmentation </t>
+  </si>
+  <si>
+    <t>IsRelevant</t>
   </si>
 </sst>
 </file>
@@ -106,7 +109,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -129,11 +132,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -167,6 +181,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +477,7 @@
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -476,8 +493,11 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -489,8 +509,9 @@
         <v>6</v>
       </c>
       <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -500,8 +521,9 @@
         <v>7</v>
       </c>
       <c r="E3" s="10"/>
-    </row>
-    <row r="4" spans="1:5" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -511,8 +533,9 @@
         <v>8</v>
       </c>
       <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -520,8 +543,9 @@
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -529,8 +553,9 @@
       <c r="C6" s="3"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -538,8 +563,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -547,8 +573,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -556,8 +583,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -565,8 +593,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -574,8 +603,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -583,8 +613,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -592,8 +623,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -601,8 +633,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -610,6 +643,7 @@
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
       <c r="E15" s="3"/>
+      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -46,10 +46,6 @@
   <si>
     <t xml:space="preserve"> 
 J. Ashburner and K. Friston book, chapter 6: Segmentation</t>
-  </si>
-  <si>
-    <t>Segmenting mag- netic resonance (MR) images into different tissue classes, using a modified Gaussian mixture model.
-MOG - Mixture of Gaussians distribution model. This is parametric representations of image inten- sity distributions.</t>
   </si>
   <si>
     <t>Evaluation criteria: 
@@ -61,6 +57,17 @@
   </si>
   <si>
     <t>IsRelevant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The article describes a MOG model with spatial priors (probabilities are vary over voxels). It also takes into considoration distoration and regularization (optimization of I voxals with k Geussians each).
+Segmenting magnetic resonance (MR) images into different tissue classes, using a modified Gaussian mixture model.
+MOG - Mixture of Gaussians distribution model. This is parametric representations of image intensity distributions.
+Loss function conssists of MOG parameters (meo,sigma,gama) , deforamtion (infectes the spatial priors - alpha), bias corrections (beta). Optimization using: EM for MOG parameters. LM for deforamation and bias.
+</t>
+  </si>
+  <si>
+    <t>a relevant youtube video list:
+https://www.youtube.com/watch?v=REypj2sy_5U&amp;index=1&amp;list=PLBv09BD7ez_4e9LtmK626Evn1ion6ynrt</t>
   </si>
 </sst>
 </file>
@@ -463,9 +470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
@@ -506,9 +513,11 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
@@ -518,7 +527,7 @@
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -530,7 +539,7 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>

--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -46,11 +46,6 @@
   <si>
     <t xml:space="preserve"> 
 J. Ashburner and K. Friston book, chapter 6: Segmentation</t>
-  </si>
-  <si>
-    <t>Evaluation criteria: 
-Macdonald
-RECIST</t>
   </si>
   <si>
     <t xml:space="preserve">EM segmentation </t>
@@ -69,12 +64,58 @@
     <t>a relevant youtube video list:
 https://www.youtube.com/watch?v=REypj2sy_5U&amp;index=1&amp;list=PLBv09BD7ez_4e9LtmK626Evn1ion6ynrt</t>
   </si>
+  <si>
+    <t xml:space="preserve">A generative probabilistic model and discriminative extensions for brain lesion segmentation – with application to tumor and stroke </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rich feature hierarchies for accurate object detection and semantic segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A method combains region proposals with CNNs. Our method gener- ates around 2000 category-independent region proposals for the input image, extracts a fixed-length feature vector from each proposal using a CNN, and then classifies each region with category-specific linear SVMs.
+Region proposal - using selective search method for extracting 2000 regions.
+Region warping to 227 × 227 pixals size.
+Feature extraction - 4096 feature vector using for each region CNN (5 conv. layers and 2 FC).
+*CNN training: large auxiliary dataset ILSVRC2012 with image-level annotations only, afterwars: domain-specific fine-tuning
+*IoU overlap threshold: we apply a greedy non-maximum suppression (for each class indepen- dently) that rejects a region if it has an intersection-over- union (IoU) overlap with a higher scoring selected region larger than a learned threshold.
+SVM per class: </t>
+  </si>
+  <si>
+    <t>DeepMedic on Brain Tumor Segmentation</t>
+  </si>
+  <si>
+    <t>From BARTS 2016 final report.
+The article suggests extention to residual connections to DeepMedic NN.</t>
+  </si>
+  <si>
+    <t>Efficient inference in fully connected CRFs with gaussian edge potentials</t>
+  </si>
+  <si>
+    <t>Efficient multi-scale 3d cnn with fully connected CRF for accurate brain lesion segmentation (DeepMedic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeepMedic main advantages:
+3D CNN
+11 layers deep
+3D CNN that produces highly accurate, soft segmentation maps 
+Multi-Scale Processing via Parallel Convolutional Pathways 
+Finally Fully connected 3D CRF that imposes regularization constraints
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Random Fields, CRF are a varient of Markov networks.
+CRF models the probability distribiotion of a swquence of input data (gives wieght to spacial info).
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A4-nPUW81qU
+More relevant data in the word doc.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,17 +130,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Ingoi"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="NimbusRomNo9L"/>
     </font>
   </fonts>
   <fills count="3">
@@ -116,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +180,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,12 +227,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,19 +510,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="42" customWidth="1"/>
+    <col min="2" max="2" width="42" style="5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="100.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="107.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,7 +530,7 @@
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -500,31 +542,33 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>8</v>
+      <c r="F1" s="11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
         <v>6</v>
@@ -532,53 +576,69 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -586,9 +646,9 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
@@ -596,9 +656,9 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="3"/>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
@@ -606,9 +666,9 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
       <c r="E11" s="3"/>
@@ -616,9 +676,9 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
       <c r="E12" s="3"/>
@@ -626,9 +686,9 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="4"/>
       <c r="E13" s="3"/>
@@ -636,23 +696,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -80,9 +80,6 @@
 SVM per class: </t>
   </si>
   <si>
-    <t>DeepMedic on Brain Tumor Segmentation</t>
-  </si>
-  <si>
     <t>From BARTS 2016 final report.
 The article suggests extention to residual connections to DeepMedic NN.</t>
   </si>
@@ -109,6 +106,55 @@
   <si>
     <t>https://www.youtube.com/watch?v=A4-nPUW81qU
 More relevant data in the word doc.</t>
+  </si>
+  <si>
+    <t>DeepMedic on Brain Tumor Segmentation (article from BRATS 2016 report)</t>
+  </si>
+  <si>
+    <t>Brain Tumor Segmentation Using Deep Convolutional Neural Network  (article from BRATS 2016 report)</t>
+  </si>
+  <si>
+    <t>The team trains three models, 2 end-to-end model and one patch-wise model:
+1. Patch-wise model - relativly small CNN net
+2. FCN - base on AlexNet
+3. SegNet - encoder-decoder architecture.</t>
+  </si>
+  <si>
+    <t>future thoughts:
+patch-model - 3D patch
+LSTM</t>
+  </si>
+  <si>
+    <t>SegNet: A Deep Convolutional Encoder-Decoder Architecture for Image Segmentation</t>
+  </si>
+  <si>
+    <t>The architecture of the encoder network is topologically identical to the 13 convolutional layers in the VGG16 network.
+The novelty of SegNet lies is in the manner in which the decoder upsamples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReSeg: A Recurrent Neural Network-based Model for Semantic Segmentation </t>
+  </si>
+  <si>
+    <t>Apply the RNN scan in 3D (6 scans) for maximum spatial information for MRI scan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN proven to be usefull for distance pixel dependencies. RNN - NN with a feedback, contains hidden state for saving the current state. May be usefull for patch segmentation with memory (remmebers the last patches and using spatial information).
+ReNet is the base model for this net.
+Stages of the model: first layers of VGG-16, then the data fed into ReNet model, then upsampling layers and softmax classifier.
+The RNN layers : 4 layers, two horizontal and two vertical, each gets as an input patch of the image Xij. Scanning up and down in the two direction will produce vertical&amp;horizontal recurrent sublayer. Then upsampling using transposed convolution is applied. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combining Fully Convolutional and Recurrent Neural Networks for 3D Biomedical Image Segmentation </t>
+  </si>
+  <si>
+    <t>Durring the years 4 ways for segmentaion of 3D images were proposed:
+1) 2D fully CNN like U-NET, DCEN 
+2) 3D CNN
+3) Tri-planar scheme (?)
+4) 3D RNN like Pyramid-LSTM (6 networks)
+There are some problems with those methodes: 2D segmentaion lavelage into 3D in incomplete. 3D CNN is extremely inefficient.
+The suggested solution consists from two componenets: fully convolutional network (FCN) to extract intra-slice contexts, and a recurrent neural network (RNN) to extract inter-slice contexts.</t>
   </si>
 </sst>
 </file>
@@ -146,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -193,11 +239,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +291,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,8 +575,8 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,11 +657,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="10"/>
@@ -609,11 +671,11 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
@@ -623,54 +685,74 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="10"/>
     </row>

--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,13 +148,27 @@
     <t xml:space="preserve">Combining Fully Convolutional and Recurrent Neural Networks for 3D Biomedical Image Segmentation </t>
   </si>
   <si>
-    <t>Durring the years 4 ways for segmentaion of 3D images were proposed:
+    <r>
+      <t xml:space="preserve">Durring the years 4 ways for segmentaion of 3D images were proposed:
 1) 2D fully CNN like U-NET, DCEN 
 2) 3D CNN
 3) Tri-planar scheme (?)
 4) 3D RNN like Pyramid-LSTM (6 networks)
 There are some problems with those methodes: 2D segmentaion lavelage into 3D in incomplete. 3D CNN is extremely inefficient.
-The suggested solution consists from two componenets: fully convolutional network (FCN) to extract intra-slice contexts, and a recurrent neural network (RNN) to extract inter-slice contexts.</t>
+The suggested solution consists from two componenets: fully convolutional network (FCN) to extract intra-slice contexts, and a recurrent neural network (RNN) to extract inter-slice contexts.
+Future conclution - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to try this network on BARTS dataset</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -576,7 +590,7 @@
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +756,7 @@
       </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="144" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>11</v>
       </c>

--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royhirsch/Documents/GitHub/Final-Project/Articles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אורי\Documents\GitHub\Final-Project\Articles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -69,16 +66,19 @@
     <t>a relevant youtube video list:
 https://www.youtube.com/watch?v=REypj2sy_5U&amp;index=1&amp;list=PLBv09BD7ez_4e9LtmK626Evn1ion6ynrt</t>
   </si>
+  <si>
+    <t>roy roy sheal hakir mi hachi yafa bair</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,7 +86,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -102,7 +102,7 @@
       <name val="NimbusRomNo9L"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -191,6 +197,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -470,21 +480,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.77734375" style="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="100.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="100.77734375" style="5" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -504,7 +514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="113.1" customHeight="1">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -520,7 +530,7 @@
       </c>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="96" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -532,7 +542,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="95.1" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -544,17 +554,19 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -564,7 +576,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -574,7 +586,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -584,7 +596,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -594,7 +606,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -604,7 +616,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -614,7 +626,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -624,7 +636,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -634,7 +646,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -644,7 +656,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="2">
         <v>14</v>
       </c>

--- a/Articles/Articels index.xlsx
+++ b/Articles/Articels index.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\אורי\Documents\GitHub\Final-Project\Articles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royhirsch/Documents/GitHub/Final-Project/Articles/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -43,11 +46,6 @@
   <si>
     <t xml:space="preserve"> 
 J. Ashburner and K. Friston book, chapter 6: Segmentation</t>
-  </si>
-  <si>
-    <t>Evaluation criteria: 
-Macdonald
-RECIST</t>
   </si>
   <si>
     <t xml:space="preserve">EM segmentation </t>
@@ -67,18 +65,121 @@
 https://www.youtube.com/watch?v=REypj2sy_5U&amp;index=1&amp;list=PLBv09BD7ez_4e9LtmK626Evn1ion6ynrt</t>
   </si>
   <si>
-    <t>roy roy sheal hakir mi hachi yafa bair</t>
+    <t xml:space="preserve">A generative probabilistic model and discriminative extensions for brain lesion segmentation – with application to tumor and stroke </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rich feature hierarchies for accurate object detection and semantic segmentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A method combains region proposals with CNNs. Our method gener- ates around 2000 category-independent region proposals for the input image, extracts a fixed-length feature vector from each proposal using a CNN, and then classifies each region with category-specific linear SVMs.
+Region proposal - using selective search method for extracting 2000 regions.
+Region warping to 227 × 227 pixals size.
+Feature extraction - 4096 feature vector using for each region CNN (5 conv. layers and 2 FC).
+*CNN training: large auxiliary dataset ILSVRC2012 with image-level annotations only, afterwars: domain-specific fine-tuning
+*IoU overlap threshold: we apply a greedy non-maximum suppression (for each class indepen- dently) that rejects a region if it has an intersection-over- union (IoU) overlap with a higher scoring selected region larger than a learned threshold.
+SVM per class: </t>
+  </si>
+  <si>
+    <t>DeepMedic on Brain Tumor Segmentation (article from BRATS 2016 report)</t>
+  </si>
+  <si>
+    <t>From BARTS 2016 final report.
+The article suggests extention to residual connections to DeepMedic NN.</t>
+  </si>
+  <si>
+    <t>Efficient multi-scale 3d cnn with fully connected CRF for accurate brain lesion segmentation (DeepMedic)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DeepMedic main advantages:
+3D CNN
+11 layers deep
+3D CNN that produces highly accurate, soft segmentation maps 
+Multi-Scale Processing via Parallel Convolutional Pathways 
+Finally Fully connected 3D CRF that imposes regularization constraints
+</t>
+  </si>
+  <si>
+    <t>Efficient inference in fully connected CRFs with gaussian edge potentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditional Random Fields, CRF are a varient of Markov networks.
+CRF models the probability distribiotion of a swquence of input data (gives wieght to spacial info).
+</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A4-nPUW81qU
+More relevant data in the word doc.</t>
+  </si>
+  <si>
+    <t>Brain Tumor Segmentation Using Deep Convolutional Neural Network  (article from BRATS 2016 report)</t>
+  </si>
+  <si>
+    <t>The team trains three models, 2 end-to-end model and one patch-wise model:
+1. Patch-wise model - relativly small CNN net
+2. FCN - base on AlexNet
+3. SegNet - encoder-decoder architecture.</t>
+  </si>
+  <si>
+    <t>future thoughts:
+patch-model - 3D patch
+LSTM</t>
+  </si>
+  <si>
+    <t>SegNet: A Deep Convolutional Encoder-Decoder Architecture for Image Segmentation</t>
+  </si>
+  <si>
+    <t>The architecture of the encoder network is topologically identical to the 13 convolutional layers in the VGG16 network.
+The novelty of SegNet lies is in the manner in which the decoder upsamples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReSeg: A Recurrent Neural Network-based Model for Semantic Segmentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNN proven to be usefull for distance pixel dependencies. RNN - NN with a feedback, contains hidden state for saving the current state. May be usefull for patch segmentation with memory (remmebers the last patches and using spatial information).
+ReNet is the base model for this net.
+Stages of the model: first layers of VGG-16, then the data fed into ReNet model, then upsampling layers and softmax classifier.
+The RNN layers : 4 layers, two horizontal and two vertical, each gets as an input patch of the image Xij. Scanning up and down in the two direction will produce vertical&amp;horizontal recurrent sublayer. Then upsampling using transposed convolution is applied. 
+</t>
+  </si>
+  <si>
+    <t>Apply the RNN scan in 3D (6 scans) for maximum spatial information for MRI scan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combining Fully Convolutional and Recurrent Neural Networks for 3D Biomedical Image Segmentation </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Durring the years 4 ways for segmentaion of 3D images were proposed:
+1) 2D fully CNN like U-NET, DCEN 
+2) 3D CNN
+3) Tri-planar scheme (?)
+4) 3D RNN like Pyramid-LSTM (6 networks)
+There are some problems with those methodes: 2D segmentaion lavelage into 3D in incomplete. 3D CNN is extremely inefficient.
+The suggested solution consists from two componenets: fully convolutional network (FCN) to extract intra-slice contexts, and a recurrent neural network (RNN) to extract inter-slice contexts.
+Future conclution - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to try this network on BARTS dataset</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -86,23 +187,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Ingoi"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="NimbusRomNo9L"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,14 +205,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -156,11 +240,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -190,14 +300,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,25 +591,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="66" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1"/>
+    <col min="1" max="1" width="11.5" style="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="100.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="100.83203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -510,31 +621,33 @@
       <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="113.1" customHeight="1">
+      <c r="F1" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="113" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" ht="96" customHeight="1">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10"/>
       <c r="C3" s="10"/>
       <c r="D3" s="10" t="s">
         <v>6</v>
@@ -542,91 +655,125 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="95.1" customHeight="1">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:6" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="10"/>
-      <c r="D4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -636,7 +783,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -646,7 +793,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -656,7 +803,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
